--- a/Assets/SampleData.xlsx
+++ b/Assets/SampleData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\client\github\XlsToJson\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6FF1746-56DD-42FF-AC58-729DFD7E0EB1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C556379-C37C-4513-A8A9-7B0427A354CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24828" yWindow="4464" windowWidth="34560" windowHeight="18684" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4188" yWindow="5352" windowWidth="34560" windowHeight="18684" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Character" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="74">
   <si>
     <t/>
   </si>
@@ -146,10 +146,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>SubClass.Child.Member</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Alpha</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -214,13 +210,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>サグクラスの子クラス</t>
-    <rPh sb="6" eb="7">
-      <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>[CONST]</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -237,55 +226,55 @@
     <rPh sb="0" eb="2">
       <t>キホン</t>
     </rPh>
-    <phoneticPr fontId="71"/>
+    <phoneticPr fontId="41"/>
   </si>
   <si>
     <t>BG_MORNING</t>
-    <phoneticPr fontId="71"/>
+    <phoneticPr fontId="41"/>
   </si>
   <si>
     <t>bg01A</t>
-    <phoneticPr fontId="71"/>
+    <phoneticPr fontId="41"/>
   </si>
   <si>
     <t>BG_NOON</t>
-    <phoneticPr fontId="71"/>
+    <phoneticPr fontId="41"/>
   </si>
   <si>
     <t>BG_NIGHT</t>
-    <phoneticPr fontId="71"/>
+    <phoneticPr fontId="41"/>
   </si>
   <si>
     <t>bg01B</t>
-    <phoneticPr fontId="71"/>
+    <phoneticPr fontId="41"/>
   </si>
   <si>
     <t>bg01C</t>
-    <phoneticPr fontId="71"/>
+    <phoneticPr fontId="41"/>
   </si>
   <si>
     <t>Stage.BG_MORNING</t>
-    <phoneticPr fontId="71"/>
+    <phoneticPr fontId="41"/>
   </si>
   <si>
     <t>Stage.BG_NOON</t>
-    <phoneticPr fontId="71"/>
+    <phoneticPr fontId="41"/>
   </si>
   <si>
     <t>Stage.BG_NIGHT</t>
-    <phoneticPr fontId="71"/>
+    <phoneticPr fontId="41"/>
   </si>
   <si>
     <t>Profile01A</t>
-    <phoneticPr fontId="71"/>
+    <phoneticPr fontId="41"/>
   </si>
   <si>
     <t>Profile01B</t>
-    <phoneticPr fontId="71"/>
+    <phoneticPr fontId="41"/>
   </si>
   <si>
     <t>Profile01C</t>
-    <phoneticPr fontId="71"/>
+    <phoneticPr fontId="41"/>
   </si>
   <si>
     <t>Brightness</t>
@@ -317,7 +306,7 @@
   </si>
   <si>
     <t>StageTime</t>
-    <phoneticPr fontId="71"/>
+    <phoneticPr fontId="41"/>
   </si>
   <si>
     <t>enum:StageTime</t>
@@ -325,15 +314,15 @@
   </si>
   <si>
     <t>Morning</t>
-    <phoneticPr fontId="71"/>
+    <phoneticPr fontId="41"/>
   </si>
   <si>
     <t>Noon</t>
-    <phoneticPr fontId="71"/>
+    <phoneticPr fontId="41"/>
   </si>
   <si>
     <t>Night</t>
-    <phoneticPr fontId="71"/>
+    <phoneticPr fontId="41"/>
   </si>
   <si>
     <t>光の有無</t>
@@ -345,12 +334,27 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>BG_MORNING = "bg01A"</t>
+    <phoneticPr fontId="41"/>
+  </si>
+  <si>
+    <t>SubClass.Child.Member0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>子クラス</t>
+    <rPh sb="0" eb="1">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="72">
+  <fonts count="45">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -371,62 +375,6 @@
       <name val="Serif"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -436,6 +384,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -454,6 +450,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -463,6 +515,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -472,6 +540,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -490,62 +598,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -555,94 +607,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -717,228 +681,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="メイリオ"/>
       <family val="3"/>
       <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -975,11 +752,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1006,43 +783,28 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1054,28 +816,28 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1084,112 +846,64 @@
     <xf numFmtId="0" fontId="37" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1207,6 +921,276 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>693420</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="吹き出し: 線 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A88DE19-81C3-4621-8C05-F68EDB98A53D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2506980" y="2110740"/>
+          <a:ext cx="2598420" cy="807720"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -5536"/>
+            <a:gd name="adj2" fmla="val -6086"/>
+            <a:gd name="adj3" fmla="val -83760"/>
+            <a:gd name="adj4" fmla="val -34521"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>One blank line is required between each block</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>各ブロックの間に１行のブランクが必要です</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="吹き出し: 線 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12123378-2B42-4F75-9688-D5B32DE58141}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9677400" y="289560"/>
+          <a:ext cx="2918460" cy="1036320"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 55295"/>
+            <a:gd name="adj2" fmla="val -4444"/>
+            <a:gd name="adj3" fmla="val -135"/>
+            <a:gd name="adj4" fmla="val -54531"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>01: Summary comment / </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>コメント</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>02: Class member / </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>クラスのメンバ変数名</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>03:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" baseline="0">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t> Variable types / </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" baseline="0">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>変数の型</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" baseline="0">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" baseline="0">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>04</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" baseline="0">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>～</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" baseline="0">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>: Data list / </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" baseline="0">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>データリスト</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1506,189 +1490,202 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.8984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="13.296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="10" style="44" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.796875" style="44" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.796875" style="44" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.8984375" style="44" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="13.296875" style="44" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.296875" style="44" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="16384" width="8.796875" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="43" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="45" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="15" t="s">
+      <c r="H2" s="46"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="47" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
+      <c r="H3" s="48"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="49">
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="49">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="49">
         <v>0.81999999284744296</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="49" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
+      <c r="H4" s="49"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="49">
         <v>2</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="49">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="49">
         <v>1.6000000238418599</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="49" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
+      <c r="H5" s="49"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="49">
         <v>3</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="49">
         <v>3</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="49">
         <v>0.5</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="49" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="22" t="s">
+      <c r="H6" s="49"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="45" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="23" t="s">
+    <row r="9" spans="1:8">
+      <c r="A9" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="43" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="25" t="s">
+    <row r="10" spans="1:8">
+      <c r="A10" s="48" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="26" t="s">
+      <c r="B10" s="50"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="48" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="27" t="s">
+      <c r="B11" s="50"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="48" t="s">
         <v>18</v>
       </c>
+      <c r="B12" s="50"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="71"/>
+  <phoneticPr fontId="41"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1697,7 +1694,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1705,253 +1702,266 @@
     <col min="1" max="1" width="18.796875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="21.59765625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="15.3984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="16.296875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="7" width="20.3984375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="24.8984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="6.8984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="23.5" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="71" t="s">
+      <c r="D1" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="71" t="s">
-        <v>65</v>
-      </c>
-      <c r="F1" s="71" t="s">
+      <c r="J2" s="25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="37"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="37"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="B12" s="40" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="18">
+        <v>1</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="20">
         <v>0</v>
       </c>
-      <c r="H1" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="33" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="56" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="G2" s="57" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="58" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="60" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="62" t="s">
+      <c r="C23" s="37"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="63" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="64" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="70" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" s="70" t="s">
-        <v>68</v>
-      </c>
-      <c r="G3" s="65" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="66" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="67" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="68" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="34" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="69" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="69" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="69" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="69" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="35" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="69" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" s="36" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="38" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="40" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="42" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="43" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="45" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="47" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="48" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="49" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="51">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="52" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="48" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="69" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="69" t="s">
+      <c r="C27" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="37"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="34" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="69" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="69" t="s">
+      <c r="B29" t="s">
         <v>51</v>
       </c>
-      <c r="B29" t="s">
-        <v>53</v>
-      </c>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="71"/>
+  <phoneticPr fontId="41"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1960,7 +1970,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1977,66 +1987,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="G1" s="57" t="s">
+      <c r="D1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="58" t="s">
+      <c r="H1" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="59" t="s">
+      <c r="I1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="60" t="s">
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="29" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="61" t="s">
+      <c r="E2" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="63" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="64" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="70" t="s">
-        <v>61</v>
-      </c>
-      <c r="F2" s="70" t="s">
-        <v>68</v>
-      </c>
-      <c r="G2" s="65" t="s">
+      <c r="H2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="66" t="s">
+      <c r="I2" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="67" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="68" t="s">
+      <c r="J2" s="33" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2045,19 +2055,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -2077,19 +2087,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -2109,19 +2119,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -2137,7 +2147,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="71"/>
+  <phoneticPr fontId="41"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2146,8 +2156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2164,66 +2174,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="G1" s="57" t="s">
+      <c r="D1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="58" t="s">
+      <c r="H1" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="59" t="s">
+      <c r="I1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="60" t="s">
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="29" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="61" t="s">
+      <c r="E2" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="63" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="64" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="70" t="s">
-        <v>61</v>
-      </c>
-      <c r="F2" s="70" t="s">
-        <v>68</v>
-      </c>
-      <c r="G2" s="65" t="s">
+      <c r="H2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="66" t="s">
+      <c r="I2" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="67" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="68" t="s">
+      <c r="J2" s="33" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2232,10 +2242,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -2260,7 +2270,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="71"/>
+  <phoneticPr fontId="41"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/Assets/SampleData.xlsx
+++ b/Assets/SampleData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\client\github\XlsToJson\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FCBA4C2-3752-4093-A4FD-A15F67281C5E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1502BF72-7ADC-44CD-AFA4-72A22E93C699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2496" yWindow="2712" windowWidth="34560" windowHeight="18684" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18996" yWindow="4764" windowWidth="27180" windowHeight="18600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Character" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="76">
   <si>
     <t/>
   </si>
@@ -138,175 +138,195 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>[SUBCLASS]</t>
-    <phoneticPr fontId="1"/>
+    <t>[CONST]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ALPHA_DEFAULT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ALPHA_ZERO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BG_MORNING</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bg01A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>BG_NOON</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>BG_NIGHT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bg01B</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bg01C</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Stage.BG_MORNING</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Stage.BG_NOON</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Stage.BG_NIGHT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Profile01A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Profile01B</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Profile01C</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Brightness</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>enum:AMPM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AMPM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AM or PM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>StageTime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>StageTime</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>enum:StageTime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Morning</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Noon</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Night</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>BG_MORNING = "bg01A"</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SubClass.Child.Member0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>FriendName List</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Sex</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Unit(meter)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Number</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Light</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PPS Profile</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[ID:required]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SubClass2.Text</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SubClass2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stage2-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>stage1-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>stage1-2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>stage1-3</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>SubClass</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Child</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[CONST]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ALPHA_DEFAULT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ALPHA_ZERO</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BG_MORNING</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>bg01A</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>BG_NOON</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>BG_NIGHT</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>bg01B</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>bg01C</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Stage.BG_MORNING</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Stage.BG_NOON</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Stage.BG_NIGHT</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Profile01A</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Profile01B</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Profile01C</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Brightness</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>enum:AMPM</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AM</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PM</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AMPM</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AM or PM</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>StageTime</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>StageTime</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>enum:StageTime</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Morning</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Noon</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Night</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>BG_MORNING = "bg01A"</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>SubClass.Child.Member0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>FriendName List</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Sex</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Unit(meter)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Number</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Light</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PPS Profile</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[ID:required]</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SubClass - Child</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -347,6 +367,13 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -357,13 +384,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
+        <fgColor theme="3" tint="0.79985961485641044"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79985961485641044"/>
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,28 +413,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1084,189 +1111,186 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="13.296875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.796875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.796875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.8984375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.296875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.296875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="16384" width="8.796875" style="2"/>
+    <col min="1" max="1" width="13.296875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.8984375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.296875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.296875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="A1" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>64</v>
+      <c r="G1" s="7" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="4"/>
+      <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="6"/>
+      <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="7">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="1">
         <v>1.81999999284744</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="7">
+      <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="1">
         <v>1.6000000238418599</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="7">
+      <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="1">
         <v>3</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="1">
         <v>1.5</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="7"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="1"/>
+      <c r="B9" s="6"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="8"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="8"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="8"/>
@@ -1281,255 +1305,246 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="18.796875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.59765625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.3984375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.296875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="20.3984375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="24.8984375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="23.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="16384" width="8.796875" style="2"/>
+    <col min="1" max="1" width="18.796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.59765625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.3984375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.296875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="7" width="20.3984375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="24.8984375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="23.5" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20.3984375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="K1" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
+      <c r="G3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="5"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="5"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="5"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="5"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="5"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="5">
         <v>0</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="5" t="s">
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="8"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="8"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="1"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="1"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="3" t="s">
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="6" t="s">
+      <c r="B23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="6">
-        <v>1</v>
-      </c>
-      <c r="C22" s="8"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="6" t="s">
+      <c r="C23" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="6">
-        <v>0</v>
-      </c>
-      <c r="C23" s="8"/>
+      <c r="B24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" s="8"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="6" t="s">
+      <c r="B25" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -1540,183 +1555,199 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="3.59765625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.3984375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.59765625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.296875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.296875" style="2" customWidth="1"/>
-    <col min="7" max="8" width="20.3984375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="24.8984375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="6.8984375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="16384" width="8.796875" style="2"/>
+    <col min="1" max="1" width="3.59765625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.3984375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.59765625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.296875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.296875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="20.3984375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="24.8984375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20.3984375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="6.8984375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3</v>
+      </c>
+      <c r="I3" s="1">
+        <v>6</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="F4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="5" t="s">
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>4</v>
+      </c>
+      <c r="I4" s="1">
         <v>7</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="J4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>5</v>
+      </c>
+      <c r="I5" s="1">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2">
-        <v>3</v>
-      </c>
-      <c r="I3" s="2">
-        <v>6</v>
-      </c>
-      <c r="J3" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2">
-        <v>4</v>
-      </c>
-      <c r="I4" s="2">
-        <v>7</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G5" s="2">
-        <v>2</v>
-      </c>
-      <c r="H5" s="2">
-        <v>5</v>
-      </c>
-      <c r="I5" s="2">
-        <v>8</v>
-      </c>
-      <c r="J5" s="2">
+      <c r="J5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1728,119 +1759,129 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.3984375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.8984375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="8" width="19.09765625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="23.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="6.296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.796875" style="2"/>
+    <col min="1" max="1" width="3.5" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.3984375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.5" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.5" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.8984375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="19.09765625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="23.5" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20.3984375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="6.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="J1" s="3" t="s">
+      <c r="I1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:11">
+      <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2" s="5" t="s">
+      <c r="E2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="2">
+    <row r="3" spans="1:11">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="2" t="b">
+      <c r="B3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>1</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>1</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>0</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>3</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="1">
         <v>6</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K3" s="1">
         <v>1</v>
       </c>
     </row>
